--- a/MillenniumHistory/x64/GameStaticReleaseWindows/Resource/AncientBooks/Country.xlsx
+++ b/MillenniumHistory/x64/GameStaticReleaseWindows/Resource/AncientBooks/Country.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="109">
   <si>
     <t>@default</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>清</t>
+  </si>
+  <si>
+    <t>民國</t>
   </si>
 </sst>
 </file>
@@ -1284,10 +1287,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L116"/>
+  <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
@@ -3384,6 +3387,21 @@
         <v>1911</v>
       </c>
     </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>18001</v>
+      </c>
+      <c r="B118" s="1">
+        <f>INT(A118/1000)</f>
+        <v>18</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D118" s="1">
+        <v>1911</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/MillenniumHistory/x64/GameStaticReleaseWindows/Resource/AncientBooks/Country.xlsx
+++ b/MillenniumHistory/x64/GameStaticReleaseWindows/Resource/AncientBooks/Country.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9444"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="110">
   <si>
     <t>@default</t>
   </si>
@@ -262,7 +275,7 @@
     <t>北燕</t>
   </si>
   <si>
-    <t>齊</t>
+    <t>南齊</t>
   </si>
   <si>
     <t>梁</t>
@@ -275,6 +288,9 @@
   </si>
   <si>
     <t>西魏</t>
+  </si>
+  <si>
+    <t>北齊</t>
   </si>
   <si>
     <t>隋</t>
@@ -346,7 +362,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -367,34 +383,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -408,14 +396,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -455,6 +435,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -505,7 +500,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,55 +536,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,31 +560,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,6 +596,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -646,7 +620,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,7 +668,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,6 +704,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -711,21 +727,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -758,6 +759,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,148 +832,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -971,52 +987,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1287,24 +1303,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L118"/>
+  <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9.775" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.4444444444444" style="1"/>
-    <col min="2" max="2" width="11.787037037037" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.0740740740741" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1111111111111" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5277777777778" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9.77777777777778" style="1"/>
-    <col min="10" max="10" width="10.6203703703704" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.77777777777778" style="1"/>
+    <col min="1" max="1" width="10.4416666666667" style="1"/>
+    <col min="2" max="2" width="11.7833333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.075" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8916666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1083333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.525" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8916666666667" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.775" style="1"/>
+    <col min="10" max="10" width="10.6166666666667" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.775" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2628,777 +2644,777 @@
         <v>23</v>
       </c>
     </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B77" s="1">
+        <f>INT(A77/1000)</f>
+        <v>10</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="1">
+        <v>386</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>45</v>
+      </c>
+      <c r="H77" s="1">
+        <v>534</v>
+      </c>
+      <c r="I77" s="1">
+        <v>10</v>
+      </c>
+      <c r="J77" s="1">
+        <v>3</v>
+      </c>
+    </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1">
-        <v>11001</v>
+        <v>10006</v>
       </c>
       <c r="B78" s="1">
         <f>INT(A78/1000)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D78" s="1">
-        <v>386</v>
+        <v>534</v>
       </c>
       <c r="E78" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F78" s="1">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="H78" s="1">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="I78" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J78" s="1">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="1">
-        <v>11002</v>
+        <v>10007</v>
       </c>
       <c r="B79" s="1">
         <f>INT(A79/1000)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D79" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E79" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F79" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H79" s="1">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="I79" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J79" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1">
-        <v>11003</v>
+        <v>10008</v>
       </c>
       <c r="B80" s="1">
         <f>INT(A80/1000)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D80" s="1">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="E80" s="1">
+        <v>5</v>
+      </c>
+      <c r="F80" s="1">
+        <v>55</v>
+      </c>
+      <c r="H80" s="1">
+        <v>577</v>
+      </c>
+      <c r="I80" s="1">
         <v>1</v>
       </c>
-      <c r="F80" s="1">
-        <v>15</v>
-      </c>
-      <c r="H80" s="1">
-        <v>556</v>
-      </c>
-      <c r="I80" s="1">
-        <v>12</v>
-      </c>
       <c r="J80" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+        <v>32</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1">
-        <v>11004</v>
+        <v>10009</v>
       </c>
       <c r="B81" s="1">
         <f>INT(A81/1000)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="D81" s="1">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="E81" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F81" s="1">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H81" s="1">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="I81" s="1">
+        <v>2</v>
+      </c>
+      <c r="J81" s="1">
         <v>1</v>
-      </c>
-      <c r="J81" s="1">
-        <v>32</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="1">
-        <v>11005</v>
+        <v>10010</v>
       </c>
       <c r="B82" s="1">
-        <f>INT(A82/1000)</f>
+        <f t="shared" ref="B82:B113" si="2">INT(A82/1000)</f>
+        <v>10</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82" s="1">
+        <v>581</v>
+      </c>
+      <c r="E82" s="1">
+        <v>2</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+      <c r="H82" s="1">
+        <v>618</v>
+      </c>
+      <c r="I82" s="1">
+        <v>5</v>
+      </c>
+      <c r="J82" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1">
+        <v>11001</v>
+      </c>
+      <c r="B84" s="1">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D82" s="1">
-        <v>557</v>
-      </c>
-      <c r="E82" s="1">
-        <v>12</v>
-      </c>
-      <c r="F82" s="1">
-        <v>37</v>
-      </c>
-      <c r="H82" s="1">
-        <v>581</v>
-      </c>
-      <c r="I82" s="1">
-        <v>2</v>
-      </c>
-      <c r="J82" s="1">
+      <c r="C84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D84" s="1">
+        <v>618</v>
+      </c>
+      <c r="E84" s="1">
+        <v>5</v>
+      </c>
+      <c r="F84" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="1">
-        <v>11006</v>
-      </c>
-      <c r="B83" s="1">
-        <f t="shared" ref="B83:B114" si="2">INT(A83/1000)</f>
-        <v>11</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D83" s="1">
-        <v>581</v>
-      </c>
-      <c r="E83" s="1">
-        <v>2</v>
-      </c>
-      <c r="F83" s="1">
+      <c r="H84" s="1">
+        <v>907</v>
+      </c>
+      <c r="I84" s="1">
+        <v>3</v>
+      </c>
+      <c r="J84" s="1">
         <v>1</v>
       </c>
-      <c r="H83" s="1">
-        <v>618</v>
-      </c>
-      <c r="I83" s="1">
-        <v>5</v>
-      </c>
-      <c r="J83" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" s="1">
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="1">
         <v>12001</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B86" s="1">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D85" s="1">
-        <v>618</v>
-      </c>
-      <c r="E85" s="1">
+      <c r="C86" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D86" s="1">
+        <v>907</v>
+      </c>
+      <c r="E86" s="1">
+        <v>4</v>
+      </c>
+      <c r="F86" s="1">
         <v>5</v>
       </c>
-      <c r="F85" s="1">
-        <v>1</v>
-      </c>
-      <c r="H85" s="1">
-        <v>907</v>
-      </c>
-      <c r="I85" s="1">
-        <v>3</v>
-      </c>
-      <c r="J85" s="1">
-        <v>1</v>
+      <c r="H86" s="1">
+        <v>923</v>
+      </c>
+      <c r="I86" s="1">
+        <v>10</v>
+      </c>
+      <c r="J86" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="1">
-        <v>13001</v>
+        <v>12002</v>
       </c>
       <c r="B87" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D87" s="1">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E87" s="1">
         <v>4</v>
       </c>
       <c r="F87" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H87" s="1">
-        <v>923</v>
+        <v>936</v>
       </c>
       <c r="I87" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J87" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="1">
-        <v>13002</v>
+        <v>12003</v>
       </c>
       <c r="B88" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="D88" s="1">
-        <v>923</v>
+        <v>936</v>
       </c>
       <c r="E88" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F88" s="1">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="H88" s="1">
-        <v>936</v>
+        <v>947</v>
       </c>
       <c r="I88" s="1">
-        <v>-10</v>
+        <v>12</v>
       </c>
       <c r="J88" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
-        <v>13003</v>
+        <v>12004</v>
       </c>
       <c r="B89" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D89" s="1">
-        <v>936</v>
+        <v>947</v>
       </c>
       <c r="E89" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F89" s="1">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="H89" s="1">
-        <v>947</v>
-      </c>
-      <c r="I89" s="1">
-        <v>12</v>
-      </c>
-      <c r="J89" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1">
-        <v>13004</v>
+        <v>12005</v>
       </c>
       <c r="B90" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D90" s="1">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="E90" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H90" s="1">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
+        <v>960</v>
+      </c>
+      <c r="I90" s="1">
+        <v>1</v>
+      </c>
+      <c r="J90" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
-        <v>13005</v>
+        <v>12006</v>
       </c>
       <c r="B91" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D91" s="1">
-        <v>951</v>
-      </c>
-      <c r="E91" s="1">
-        <v>1</v>
-      </c>
-      <c r="F91" s="1">
-        <v>4</v>
+        <v>902</v>
       </c>
       <c r="H91" s="1">
-        <v>960</v>
-      </c>
-      <c r="I91" s="1">
-        <v>1</v>
-      </c>
-      <c r="J91" s="1">
-        <v>40</v>
+        <v>937</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1">
-        <v>13006</v>
+        <v>12007</v>
       </c>
       <c r="B92" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="D92" s="1">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H92" s="1">
-        <v>937</v>
+        <v>925</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1">
-        <v>13007</v>
+        <v>12008</v>
       </c>
       <c r="B93" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="H93" s="1">
-        <v>925</v>
+        <v>978</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1">
-        <v>13008</v>
+        <v>12009</v>
       </c>
       <c r="B94" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="D94" s="1">
         <v>907</v>
       </c>
       <c r="H94" s="1">
-        <v>978</v>
+        <v>951</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1">
-        <v>13009</v>
+        <v>12010</v>
       </c>
       <c r="B95" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="D95" s="1">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="H95" s="1">
-        <v>951</v>
+        <v>945</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1">
-        <v>13010</v>
+        <v>12011</v>
       </c>
       <c r="B96" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D96" s="1">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="H96" s="1">
-        <v>945</v>
+        <v>971</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1">
-        <v>13011</v>
+        <v>12012</v>
       </c>
       <c r="B97" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D97" s="1">
-        <v>917</v>
+        <v>924</v>
       </c>
       <c r="H97" s="1">
-        <v>971</v>
+        <v>963</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1">
-        <v>13012</v>
+        <v>12013</v>
       </c>
       <c r="B98" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D98" s="1">
-        <v>924</v>
+        <v>933</v>
       </c>
       <c r="H98" s="1">
-        <v>963</v>
+        <v>965</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1">
-        <v>13013</v>
+        <v>12014</v>
       </c>
       <c r="B99" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D99" s="1">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="H99" s="1">
-        <v>965</v>
+        <v>975</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1">
-        <v>13014</v>
+        <v>12015</v>
       </c>
       <c r="B100" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D100" s="1">
-        <v>937</v>
+        <v>951</v>
       </c>
       <c r="H100" s="1">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="1">
-        <v>13015</v>
-      </c>
-      <c r="B101" s="1">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="1">
+        <v>13001</v>
+      </c>
+      <c r="B102" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D101" s="1">
-        <v>951</v>
-      </c>
-      <c r="H101" s="1">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="C102" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D102" s="1">
+        <v>960</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1</v>
+      </c>
+      <c r="F102" s="1">
+        <v>42</v>
+      </c>
+      <c r="H102" s="1">
+        <v>1127</v>
+      </c>
+      <c r="I102" s="1">
+        <v>3</v>
+      </c>
+      <c r="J102" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1">
-        <v>14001</v>
+        <v>13002</v>
       </c>
       <c r="B103" s="1">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D103" s="1">
-        <v>960</v>
+        <v>1127</v>
       </c>
       <c r="E103" s="1">
+        <v>5</v>
+      </c>
+      <c r="F103" s="1">
+        <v>27</v>
+      </c>
+      <c r="G103" s="1">
         <v>1</v>
       </c>
-      <c r="F103" s="1">
-        <v>42</v>
-      </c>
       <c r="H103" s="1">
-        <v>1127</v>
+        <v>1279</v>
       </c>
       <c r="I103" s="1">
-        <v>3</v>
-      </c>
-      <c r="J103" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
-        <v>14002</v>
+        <v>13003</v>
       </c>
       <c r="B104" s="1">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D104" s="1">
-        <v>1127</v>
-      </c>
-      <c r="E104" s="1">
-        <v>5</v>
-      </c>
-      <c r="F104" s="1">
-        <v>27</v>
-      </c>
-      <c r="G104" s="1">
-        <v>1</v>
+        <v>907</v>
       </c>
       <c r="H104" s="1">
-        <v>1279</v>
-      </c>
-      <c r="I104" s="1">
-        <v>2</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="1">
-        <v>14003</v>
+        <v>13004</v>
       </c>
       <c r="B105" s="1">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D105" s="1">
-        <v>907</v>
+        <v>1032</v>
       </c>
       <c r="H105" s="1">
-        <v>1125</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="1">
-        <v>14004</v>
+        <v>13005</v>
       </c>
       <c r="B106" s="1">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D106" s="1">
-        <v>1032</v>
+        <v>1124</v>
       </c>
       <c r="H106" s="1">
-        <v>1227</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="1">
-        <v>14005</v>
+        <v>13006</v>
       </c>
       <c r="B107" s="1">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D107" s="1">
-        <v>1124</v>
+        <v>1115</v>
       </c>
       <c r="H107" s="1">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="1">
-        <v>14006</v>
-      </c>
-      <c r="B108" s="1">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1">
+        <v>14001</v>
+      </c>
+      <c r="B109" s="1">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D108" s="1">
-        <v>1115</v>
-      </c>
-      <c r="H108" s="1">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="1">
+      <c r="C109" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D109" s="1">
+        <v>1206</v>
+      </c>
+      <c r="H109" s="1">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1">
         <v>15001</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B111" s="1">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D110" s="1">
-        <v>1206</v>
-      </c>
-      <c r="H110" s="1">
+      <c r="C111" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D111" s="1">
         <v>1368</v>
+      </c>
+      <c r="H111" s="1">
+        <v>1644</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="1">
-        <v>16001</v>
+        <v>15002</v>
       </c>
       <c r="B112" s="1">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D112" s="1">
-        <v>1368</v>
+        <v>1644</v>
       </c>
       <c r="H112" s="1">
-        <v>1644</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="1">
-        <v>16002</v>
+        <v>15003</v>
       </c>
       <c r="B113" s="1">
         <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D113" s="1">
+        <v>1616</v>
+      </c>
+      <c r="H113" s="1">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="1">
+        <v>16001</v>
+      </c>
+      <c r="B115" s="1">
+        <f>INT(A115/1000)</f>
         <v>16</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D113" s="1">
-        <v>1644</v>
-      </c>
-      <c r="H113" s="1">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="1">
-        <v>16003</v>
-      </c>
-      <c r="B114" s="1">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D114" s="1">
-        <v>1616</v>
-      </c>
-      <c r="H114" s="1">
+      <c r="C115" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D115" s="1">
         <v>1636</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="1">
+      <c r="H115" s="1">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>17001</v>
       </c>
-      <c r="B116" s="1">
-        <f>INT(A116/1000)</f>
+      <c r="B117" s="1">
+        <f>INT(A117/1000)</f>
         <v>17</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D116" s="1">
-        <v>1636</v>
-      </c>
-      <c r="H116" s="1">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="1">
-        <v>18001</v>
-      </c>
-      <c r="B118" s="1">
-        <f>INT(A118/1000)</f>
-        <v>18</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D118" s="1">
+      <c r="C117" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D117" s="1">
         <v>1911</v>
       </c>
     </row>
